--- a/app/templates/report/weekly.xlsx
+++ b/app/templates/report/weekly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BD7C33-C4EE-47C2-A6A5-2541F3AECA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BAF70-BE12-44CE-ACE9-CBAEBC8E0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,9 +425,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -435,6 +432,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -744,34 +744,36 @@
   </sheetPr>
   <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.42578125" style="13" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.42578125" style="13" customWidth="1"/>
-    <col min="20" max="21" width="10" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="48.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="13.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" style="12" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" style="12" customWidth="1"/>
-    <col min="35" max="39" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.42578125" style="12" customWidth="1"/>
+    <col min="20" max="21" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="48.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="40.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11" style="11" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" style="11" customWidth="1"/>
+    <col min="35" max="39" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.25">
@@ -1175,9 +1177,9 @@
       </c>
       <c r="AA4" s="9"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>

--- a/app/templates/report/weekly.xlsx
+++ b/app/templates/report/weekly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BAF70-BE12-44CE-ACE9-CBAEBC8E0541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375FDEA-0CA2-4E4D-97D4-437FD528E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weekly!$A$1:$AM$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weekly!$C$1:$AO$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
     <t>¿Nacional?</t>
   </si>
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>Rack rate</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Booking_id</t>
+  </si>
+  <si>
+    <t>Booking_status</t>
   </si>
 </sst>
 </file>
@@ -742,160 +754,165 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11.42578125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.42578125" style="12" customWidth="1"/>
-    <col min="20" max="21" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="48.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="40.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="13.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11" style="11" customWidth="1"/>
-    <col min="34" max="34" width="17.28515625" style="11" customWidth="1"/>
-    <col min="35" max="39" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.42578125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.42578125" style="12" customWidth="1"/>
+    <col min="22" max="23" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="48.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="40.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="13.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" style="11" customWidth="1"/>
+    <col min="36" max="36" width="17.28515625" style="11" customWidth="1"/>
+    <col min="37" max="41" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -914,27 +931,27 @@
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="N2" s="5" t="s">
         <v>8</v>
       </c>
@@ -944,11 +961,11 @@
       <c r="P2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>9</v>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="S2" s="6" t="s">
         <v>9</v>
@@ -959,27 +976,27 @@
       <c r="U2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>8</v>
+      <c r="V2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AA2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="AC2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1013,182 +1030,190 @@
       <c r="AM2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="AN2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="O3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7" t="s">
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="Z3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AD3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AE3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AF3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AG3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AH3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AI3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AK3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AL3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AM3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9" t="e">
-        <f ca="1">IF(AI4&lt;&gt;"",ROUNDDOWN((NOW()-DATEVALUE(AI4))/365,0),"")</f>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="e">
+        <f ca="1">IF(AK4&lt;&gt;"",ROUNDDOWN((NOW()-DATEVALUE(AK4))/365,0),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4" si="0">IF(I4="España","NATIONAL","INTERNATIONAL")</f>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="str">
+        <f t="shared" ref="M4" si="0">IF(K4="España","NATIONAL","INTERNATIONAL")</f>
         <v>INTERNATIONAL</v>
       </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>39</v>
-      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="9" t="e">
-        <f>P4-O4</f>
+      <c r="Q4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" s="9" t="e">
+        <f>R4-Q4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R4" s="10" t="str">
-        <f t="shared" ref="R4:S4" si="1">IF(AL4&lt;&gt;"",AL4,AJ4)</f>
+      <c r="T4" s="10" t="str">
+        <f t="shared" ref="T4:U4" si="1">IF(AN4&lt;&gt;"",AN4,AL4)</f>
         <v>date</v>
       </c>
-      <c r="S4" s="10" t="str">
+      <c r="U4" s="10" t="str">
         <f t="shared" si="1"/>
         <v>date</v>
       </c>
-      <c r="T4" s="9" t="e">
-        <f t="shared" ref="T4" si="2">S4-R4</f>
+      <c r="V4" s="9" t="e">
+        <f t="shared" ref="V4" si="2">U4-T4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U4" s="9" t="e">
-        <f t="shared" ref="U4" si="3">MROUND(T4/30,0.5)</f>
+      <c r="W4" s="9" t="e">
+        <f t="shared" ref="W4" si="3">MROUND(V4/30,0.5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
       <c r="X4" s="9"/>
-      <c r="Y4" s="9" t="str">
-        <f t="shared" ref="Y4" si="4">MID(AH4,8,5)</f>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9" t="str">
+        <f t="shared" ref="AA4" si="4">MID(AJ4,8,5)</f>
         <v/>
       </c>
-      <c r="Z4" s="9" t="str">
-        <f t="shared" ref="Z4" si="5">MID(AH4,14,9)</f>
+      <c r="AB4" s="9" t="str">
+        <f t="shared" ref="AB4" si="5">MID(AJ4,14,9)</f>
         <v/>
       </c>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
       <c r="AE4" s="14"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9"/>
       <c r="AK4" s="9" t="s">
         <v>39</v>
       </c>
@@ -1198,9 +1223,15 @@
       <c r="AM4" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="AN4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:AO1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/templates/report/weekly.xlsx
+++ b/app/templates/report/weekly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F375FDEA-0CA2-4E4D-97D4-437FD528E797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AFC12F-03D6-4647-92E2-FB91AFF79BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weekly!$C$1:$AO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weekly!$A$1:$AO$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -912,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>74</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:AO1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/templates/report/weekly.xlsx
+++ b/app/templates/report/weekly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AFC12F-03D6-4647-92E2-FB91AFF79BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC712FEF-2AAB-43C8-AD2B-AFBF371B2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -912,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>74</v>
       </c>

--- a/app/templates/report/weekly.xlsx
+++ b/app/templates/report/weekly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC712FEF-2AAB-43C8-AD2B-AFBF371B2645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F2872A1-EA39-4600-819B-65946728CE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,108 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
   <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Reserva hecha por</t>
+  </si>
+  <si>
+    <t>Captación</t>
+  </si>
+  <si>
+    <t>Canal de entrada</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Continente</t>
+  </si>
+  <si>
     <t>¿Nacional?</t>
   </si>
   <si>
+    <t>Escuela</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>Fecha primer contacto</t>
+  </si>
+  <si>
+    <t>Fecha pre reserva</t>
+  </si>
+  <si>
+    <t>Reserva confirmada</t>
+  </si>
+  <si>
+    <t>Días antelación solicitud reservas vs llegada</t>
+  </si>
+  <si>
+    <t>Fecha de llegada</t>
+  </si>
+  <si>
+    <t>Fecha de salida</t>
+  </si>
+  <si>
+    <t>Duración reserva dias</t>
+  </si>
+  <si>
+    <t>Duracion reservas meses</t>
+  </si>
+  <si>
+    <t>Edificio</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Localización</t>
+  </si>
+  <si>
+    <t>Piso</t>
+  </si>
+  <si>
+    <t>Habitación</t>
+  </si>
+  <si>
+    <t>City code</t>
+  </si>
+  <si>
+    <t>Tipo habitación</t>
+  </si>
+  <si>
+    <t>Rack rate</t>
+  </si>
+  <si>
+    <t>Servicios</t>
+  </si>
+  <si>
+    <t>Total renta estancia (Confirmed rate)</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
     <t>Consumos incluidos</t>
   </si>
   <si>
@@ -68,6 +167,12 @@
     <t>Formula</t>
   </si>
   <si>
+    <t>Booking_id</t>
+  </si>
+  <si>
+    <t>Booking_status</t>
+  </si>
+  <si>
     <t>Customer.Name</t>
   </si>
   <si>
@@ -119,6 +224,9 @@
     <t>Resource.Building.District.Location.Name</t>
   </si>
   <si>
+    <t>Resource.Building.District.Location.Code</t>
+  </si>
+  <si>
     <t>Resource.Place_type.Name</t>
   </si>
   <si>
@@ -156,114 +264,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>Resource.Building.District.Location.Code</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Reserva hecha por</t>
-  </si>
-  <si>
-    <t>Captación</t>
-  </si>
-  <si>
-    <t>Canal de entrada</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Nacionalidad</t>
-  </si>
-  <si>
-    <t>Continente</t>
-  </si>
-  <si>
-    <t>Escuela</t>
-  </si>
-  <si>
-    <t>Idioma</t>
-  </si>
-  <si>
-    <t>Fecha primer contacto</t>
-  </si>
-  <si>
-    <t>Reserva confirmada</t>
-  </si>
-  <si>
-    <t>Fecha pre reserva</t>
-  </si>
-  <si>
-    <t>Días antelación solicitud reservas vs llegada</t>
-  </si>
-  <si>
-    <t>Fecha de llegada</t>
-  </si>
-  <si>
-    <t>Fecha de salida</t>
-  </si>
-  <si>
-    <t>Duración reserva dias</t>
-  </si>
-  <si>
-    <t>Duracion reservas meses</t>
-  </si>
-  <si>
-    <t>Edificio</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Localización</t>
-  </si>
-  <si>
-    <t>Piso</t>
-  </si>
-  <si>
-    <t>Habitación</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>City code</t>
-  </si>
-  <si>
-    <t>Tipo habitación</t>
-  </si>
-  <si>
-    <t>Total renta estancia (Confirmed rate)</t>
-  </si>
-  <si>
-    <t>Rack rate</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Booking_id</t>
-  </si>
-  <si>
-    <t>Booking_status</t>
   </si>
 </sst>
 </file>
@@ -405,20 +405,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -434,9 +422,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -448,6 +433,27 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,6 +470,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -754,484 +764,492 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.42578125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="11.42578125" style="12" customWidth="1"/>
-    <col min="22" max="23" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="48.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="40.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="13.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="11" customWidth="1"/>
-    <col min="36" max="36" width="17.28515625" style="11" customWidth="1"/>
-    <col min="37" max="41" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7" style="6" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10" style="7" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10" style="7" customWidth="1"/>
+    <col min="22" max="23" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="48.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.85546875" style="6" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="39" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" style="6" customWidth="1"/>
+    <col min="36" max="36" width="17.28515625" style="6" customWidth="1"/>
+    <col min="37" max="41" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:42" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="AN3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>7</v>
+      <c r="AO3" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="e">
-        <f ca="1">IF(AK4&lt;&gt;"",ROUNDDOWN((NOW()-DATEVALUE(AK4))/365,0),"")</f>
+    <row r="4" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="15" t="e">
+        <f ca="1">IF(AK4&lt;&gt;"",ROUNDDOWN((NOW()-AK4)/365,0),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9" t="str">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="str">
         <f t="shared" ref="M4" si="0">IF(K4="España","NATIONAL","INTERNATIONAL")</f>
         <v>INTERNATIONAL</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S4" s="9" t="e">
-        <f>R4-Q4</f>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="15" t="e">
+        <f t="shared" ref="S4" si="1">R4-Q4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T4" s="10" t="str">
-        <f t="shared" ref="T4:U4" si="1">IF(AN4&lt;&gt;"",AN4,AL4)</f>
+      <c r="T4" s="14" t="str">
+        <f t="shared" ref="T4" si="2">IF(AN4&lt;&gt;"",AN4,AL4)</f>
         <v>date</v>
       </c>
-      <c r="U4" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="U4" s="14" t="str">
+        <f t="shared" ref="U4" si="3">IF(AO4&lt;&gt;"",AO4,AM4)</f>
         <v>date</v>
       </c>
-      <c r="V4" s="9" t="e">
-        <f t="shared" ref="V4" si="2">U4-T4</f>
+      <c r="V4" s="15" t="e">
+        <f t="shared" ref="V4" si="4">U4-T4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W4" s="9" t="e">
-        <f t="shared" ref="W4" si="3">MROUND(V4/30,0.5)</f>
+      <c r="W4" s="15" t="e">
+        <f t="shared" ref="W4" si="5">MROUND(V4/30,0.5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9" t="str">
-        <f t="shared" ref="AA4" si="4">MID(AJ4,8,5)</f>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5" t="str">
+        <f t="shared" ref="AA4" si="6">MID(AJ4,8,5)</f>
         <v/>
       </c>
-      <c r="AB4" s="9" t="str">
-        <f t="shared" ref="AB4" si="5">MID(AJ4,14,9)</f>
+      <c r="AB4" s="5" t="str">
+        <f t="shared" ref="AB4" si="7">MID(AJ4,14,9)</f>
         <v/>
       </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP4" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app/templates/report/weekly.xlsx
+++ b/app/templates/report/weekly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07dae84afc6a2e79/Development/projects/ciber/cotown/back/app/templates/report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F2872A1-EA39-4600-819B-65946728CE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0022871-1AFF-4F2D-A24D-C6B00B4C7590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -470,10 +470,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -766,9 +762,7 @@
   </sheetPr>
   <dimension ref="A1:AP4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1193,34 +1187,34 @@
         <v>75</v>
       </c>
       <c r="S4" s="15" t="e">
-        <f t="shared" ref="S4" si="1">R4-Q4</f>
+        <f>T4-Q4</f>
         <v>#VALUE!</v>
       </c>
       <c r="T4" s="14" t="str">
-        <f t="shared" ref="T4" si="2">IF(AN4&lt;&gt;"",AN4,AL4)</f>
+        <f t="shared" ref="T4" si="1">IF(AN4&lt;&gt;"",AN4,AL4)</f>
         <v>date</v>
       </c>
       <c r="U4" s="14" t="str">
-        <f t="shared" ref="U4" si="3">IF(AO4&lt;&gt;"",AO4,AM4)</f>
+        <f t="shared" ref="U4" si="2">IF(AO4&lt;&gt;"",AO4,AM4)</f>
         <v>date</v>
       </c>
       <c r="V4" s="15" t="e">
-        <f t="shared" ref="V4" si="4">U4-T4</f>
+        <f t="shared" ref="V4" si="3">U4-T4</f>
         <v>#VALUE!</v>
       </c>
       <c r="W4" s="15" t="e">
-        <f t="shared" ref="W4" si="5">MROUND(V4/30,0.5)</f>
+        <f t="shared" ref="W4" si="4">MROUND(V4/30,0.5)</f>
         <v>#VALUE!</v>
       </c>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="5" t="str">
-        <f t="shared" ref="AA4" si="6">MID(AJ4,8,5)</f>
+        <f t="shared" ref="AA4" si="5">MID(AJ4,8,5)</f>
         <v/>
       </c>
       <c r="AB4" s="5" t="str">
-        <f t="shared" ref="AB4" si="7">MID(AJ4,14,9)</f>
+        <f t="shared" ref="AB4" si="6">MID(AJ4,14,9)</f>
         <v/>
       </c>
       <c r="AC4" s="5"/>
@@ -1229,7 +1223,7 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
+      <c r="AI4" s="9"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="14" t="s">
         <v>75</v>
@@ -1251,5 +1245,8 @@
   </sheetData>
   <autoFilter ref="A1:AO1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="S4" evalError="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/app/templates/report/weekly.xlsx
+++ b/app/templates/report/weekly.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Development\projects\ciber\cotown\back\app\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0022871-1AFF-4F2D-A24D-C6B00B4C7590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303487EA-0294-43C0-8CD1-6A14410D716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weekly!$A$1:$AO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weekly!$A$1:$AP$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Intermediario</t>
   </si>
 </sst>
 </file>
@@ -760,45 +763,46 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7" style="6" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="10" style="7" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="10" style="7" customWidth="1"/>
-    <col min="22" max="23" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="48.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.85546875" style="6" customWidth="1"/>
-    <col min="29" max="29" width="9.28515625" style="6" customWidth="1"/>
-    <col min="30" max="30" width="39" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11" style="6" customWidth="1"/>
-    <col min="36" max="36" width="17.28515625" style="6" customWidth="1"/>
-    <col min="37" max="41" width="10" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7" style="6" customWidth="1"/>
+    <col min="12" max="12" width="28.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="10" style="7" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="10" style="7" customWidth="1"/>
+    <col min="23" max="24" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="48.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.5546875" style="6" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" style="6" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" style="6" customWidth="1"/>
+    <col min="31" max="31" width="39" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" style="6" customWidth="1"/>
+    <col min="37" max="37" width="17.33203125" style="6" customWidth="1"/>
+    <col min="38" max="42" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="10" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -818,112 +822,115 @@
         <v>5</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AD1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AE1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AF1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AG1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AH1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AI1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -942,30 +949,28 @@
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O2" s="1" t="s">
         <v>41</v>
       </c>
@@ -978,8 +983,8 @@
       <c r="R2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>42</v>
+      <c r="S2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>42</v>
@@ -993,8 +998,8 @@
       <c r="W2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>41</v>
+      <c r="X2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>41</v>
@@ -1002,14 +1007,14 @@
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>42</v>
+      <c r="AA2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>41</v>
+      <c r="AC2" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>41</v>
@@ -1047,8 +1052,11 @@
       <c r="AO2" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AP2" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" ht="50.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1067,95 +1075,96 @@
       <c r="F3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="4"/>
+      <c r="T3" s="3"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="3"/>
+      <c r="V3" s="4"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
-      <c r="AC3" s="3" t="s">
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1164,70 +1173,68 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="15" t="e">
-        <f ca="1">IF(AK4&lt;&gt;"",ROUNDDOWN((NOW()-AK4)/365,0),"")</f>
+      <c r="I4" s="5"/>
+      <c r="J4" s="15" t="e">
+        <f ca="1">IF(AL4&lt;&gt;"",ROUNDDOWN((NOW()-AL4)/365,0),"")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5" t="str">
-        <f t="shared" ref="M4" si="0">IF(K4="España","NATIONAL","INTERNATIONAL")</f>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="str">
+        <f t="shared" ref="N4" si="0">IF(L4="España","NATIONAL","INTERNATIONAL")</f>
         <v>INTERNATIONAL</v>
       </c>
-      <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="P4" s="5"/>
       <c r="Q4" s="14" t="s">
         <v>75</v>
       </c>
       <c r="R4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="S4" s="15" t="e">
-        <f>T4-Q4</f>
+      <c r="S4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" s="15" t="e">
+        <f>U4-R4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T4" s="14" t="str">
-        <f t="shared" ref="T4" si="1">IF(AN4&lt;&gt;"",AN4,AL4)</f>
+      <c r="U4" s="14" t="str">
+        <f t="shared" ref="U4" si="1">IF(AO4&lt;&gt;"",AO4,AM4)</f>
         <v>date</v>
       </c>
-      <c r="U4" s="14" t="str">
-        <f t="shared" ref="U4" si="2">IF(AO4&lt;&gt;"",AO4,AM4)</f>
+      <c r="V4" s="14" t="str">
+        <f t="shared" ref="V4" si="2">IF(AP4&lt;&gt;"",AP4,AN4)</f>
         <v>date</v>
       </c>
-      <c r="V4" s="15" t="e">
-        <f t="shared" ref="V4" si="3">U4-T4</f>
+      <c r="W4" s="15" t="e">
+        <f t="shared" ref="W4" si="3">V4-U4</f>
         <v>#VALUE!</v>
       </c>
-      <c r="W4" s="15" t="e">
-        <f t="shared" ref="W4" si="4">MROUND(V4/30,0.5)</f>
+      <c r="X4" s="15" t="e">
+        <f t="shared" ref="X4" si="4">MROUND(W4/30,0.5)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
-      <c r="AA4" s="5" t="str">
-        <f t="shared" ref="AA4" si="5">MID(AJ4,8,5)</f>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5" t="str">
+        <f t="shared" ref="AB4" si="5">MID(AK4,8,5)</f>
         <v/>
       </c>
-      <c r="AB4" s="5" t="str">
-        <f t="shared" ref="AB4" si="6">MID(AJ4,14,9)</f>
+      <c r="AC4" s="5" t="str">
+        <f t="shared" ref="AC4" si="6">MID(AK4,14,9)</f>
         <v/>
       </c>
-      <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="9"/>
+      <c r="AE4" s="5"/>
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="14" t="s">
-        <v>75</v>
-      </c>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="5"/>
       <c r="AL4" s="14" t="s">
         <v>75</v>
       </c>
@@ -1240,13 +1247,16 @@
       <c r="AO4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AP4" s="16"/>
+      <c r="AP4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ4" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AP1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="S4" evalError="1"/>
+    <ignoredError sqref="T4" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>